--- a/BackTest/2019-11-17 BackTest MITH.xlsx
+++ b/BackTest/2019-11-17 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -851,6 +867,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -892,6 +909,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -935,6 +953,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -976,6 +995,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1017,6 +1037,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1058,6 +1079,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1099,6 +1121,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1140,6 +1163,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,6 +1207,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1224,6 +1249,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1265,6 +1291,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1306,6 +1333,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1347,6 +1375,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1390,6 +1419,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1433,6 +1463,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1474,6 +1505,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1515,6 +1547,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1556,6 +1589,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1597,6 +1631,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1638,6 +1673,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1679,6 +1715,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1720,6 +1757,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1761,6 +1799,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1802,6 +1841,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1843,6 +1883,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1886,6 +1927,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1927,6 +1969,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1970,6 +2013,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2011,6 +2055,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2052,6 +2097,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2093,6 +2139,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2134,6 +2181,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2175,6 +2223,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2216,6 +2265,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2257,6 +2307,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2298,6 +2349,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2339,6 +2391,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2382,6 +2435,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2425,6 +2479,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2468,6 +2523,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2509,6 +2565,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2550,6 +2607,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2591,6 +2649,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2632,6 +2691,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2673,6 +2733,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2714,6 +2775,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2755,6 +2817,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2796,6 +2859,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2837,6 +2901,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2878,6 +2943,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2919,6 +2985,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2960,6 +3027,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3001,6 +3069,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3042,6 +3111,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3083,6 +3153,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3124,6 +3195,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3165,6 +3237,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3206,6 +3279,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3247,6 +3321,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3288,6 +3363,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3329,6 +3405,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3370,6 +3447,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3411,6 +3489,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3452,6 +3531,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3493,6 +3573,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3534,6 +3615,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3575,6 +3657,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3616,6 +3699,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3657,6 +3741,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3698,6 +3783,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3739,6 +3825,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3766,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -3774,11 +3861,14 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>1.053823529411765</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.014705882352941</v>
       </c>
     </row>
     <row r="85">
@@ -3807,20 +3897,15 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3848,20 +3933,15 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3892,17 +3972,12 @@
         <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>1.046470588235294</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3930,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3938,6 +4013,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3965,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3973,6 +4049,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4000,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4008,6 +4085,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4043,6 +4121,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4078,6 +4157,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4113,6 +4193,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4148,6 +4229,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4183,6 +4265,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4218,6 +4301,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4253,6 +4337,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4288,6 +4373,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4323,6 +4409,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4358,6 +4445,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4393,6 +4481,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4428,6 +4517,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4463,6 +4553,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4498,6 +4589,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4525,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4533,6 +4625,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4568,6 +4661,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4595,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4603,6 +4697,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4638,6 +4733,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4673,6 +4769,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4708,6 +4805,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4735,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4743,6 +4841,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4770,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4778,6 +4877,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4805,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4813,6 +4913,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4840,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4848,6 +4949,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4883,6 +4985,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4918,6 +5021,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-17 BackTest MITH.xlsx
+++ b/BackTest/2019-11-17 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E2" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="G2" t="n">
-        <v>817300.2477620437</v>
+        <v>645324.8563</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C3" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D3" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E3" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>10932.1728</v>
       </c>
       <c r="G3" t="n">
-        <v>817337.2477620437</v>
+        <v>656257.0290999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.4</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E4" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>42840.5</v>
       </c>
       <c r="G4" t="n">
-        <v>817337.2477620437</v>
+        <v>656257.0290999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D5" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F5" t="n">
-        <v>23910</v>
+        <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>817337.2477620437</v>
+        <v>656216.0290999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D6" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E6" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>36072.7447</v>
       </c>
       <c r="G6" t="n">
-        <v>817337.2477620437</v>
+        <v>656216.0290999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.5</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C7" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D7" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E7" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F7" t="n">
-        <v>12226.1299</v>
+        <v>224998.7148</v>
       </c>
       <c r="G7" t="n">
-        <v>817337.2477620437</v>
+        <v>656216.0290999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -666,20 +698,28 @@
         <v>13.6</v>
       </c>
       <c r="F8" t="n">
-        <v>1019.155</v>
+        <v>29802.9212</v>
       </c>
       <c r="G8" t="n">
-        <v>816318.0927620437</v>
+        <v>686018.9502999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,31 +730,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C9" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E9" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2744.765</v>
+        <v>24118.9325</v>
       </c>
       <c r="G9" t="n">
-        <v>816318.0927620437</v>
+        <v>710137.8827999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13.6</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,22 +770,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F10" t="n">
-        <v>353.86</v>
+        <v>5928.7568</v>
       </c>
       <c r="G10" t="n">
-        <v>816318.0927620437</v>
+        <v>710137.8827999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +794,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +812,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C11" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="D11" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E11" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="F11" t="n">
-        <v>9449.8362</v>
+        <v>845.6204379562043</v>
       </c>
       <c r="G11" t="n">
-        <v>825767.9289620437</v>
+        <v>709292.2623620437</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +856,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D12" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E12" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F12" t="n">
-        <v>569.35</v>
+        <v>19296.6902</v>
       </c>
       <c r="G12" t="n">
-        <v>825198.5789620437</v>
+        <v>709292.2623620437</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +900,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D13" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E13" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F13" t="n">
-        <v>841.04</v>
+        <v>1338.4167</v>
       </c>
       <c r="G13" t="n">
-        <v>825198.5789620437</v>
+        <v>709292.2623620437</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -858,12 +924,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="K13" t="n">
         <v>13.6</v>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -874,10 +944,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D14" t="n">
         <v>13.7</v>
@@ -886,24 +956,26 @@
         <v>13.6</v>
       </c>
       <c r="F14" t="n">
-        <v>3211.6</v>
+        <v>3056</v>
       </c>
       <c r="G14" t="n">
-        <v>825198.5789620437</v>
+        <v>712348.2623620437</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>13.5</v>
+      </c>
       <c r="K14" t="n">
         <v>13.6</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -916,32 +988,30 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C15" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D15" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E15" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1238</v>
+        <v>109259.8524</v>
       </c>
       <c r="G15" t="n">
-        <v>825198.5789620437</v>
+        <v>821608.1147620437</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>13.6</v>
       </c>
@@ -960,22 +1030,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C16" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D16" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E16" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F16" t="n">
-        <v>1043.04</v>
+        <v>6.2043795620439e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>825198.5789620437</v>
+        <v>821608.1147620437</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1014,10 +1084,10 @@
         <v>13.6</v>
       </c>
       <c r="F17" t="n">
-        <v>1067.59</v>
+        <v>122.0748</v>
       </c>
       <c r="G17" t="n">
-        <v>825198.5789620437</v>
+        <v>821486.0399620438</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1044,22 +1114,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C18" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D18" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E18" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F18" t="n">
-        <v>471.27</v>
+        <v>6964.9998</v>
       </c>
       <c r="G18" t="n">
-        <v>825198.5789620437</v>
+        <v>828451.0397620437</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1086,22 +1156,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C19" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D19" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E19" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F19" t="n">
-        <v>236.28</v>
+        <v>174</v>
       </c>
       <c r="G19" t="n">
-        <v>825198.5789620437</v>
+        <v>828277.0397620437</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1128,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C20" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D20" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E20" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F20" t="n">
-        <v>4206.9715</v>
+        <v>2205.4342</v>
       </c>
       <c r="G20" t="n">
-        <v>825198.5789620437</v>
+        <v>830482.4739620438</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1170,32 +1240,30 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C21" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D21" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E21" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F21" t="n">
-        <v>1572.09</v>
+        <v>17639.5814</v>
       </c>
       <c r="G21" t="n">
-        <v>825198.5789620437</v>
+        <v>830482.4739620438</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>13.6</v>
       </c>
@@ -1214,22 +1282,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="C22" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D22" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E22" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F22" t="n">
-        <v>716.2665</v>
+        <v>8933.038500000001</v>
       </c>
       <c r="G22" t="n">
-        <v>825198.5789620437</v>
+        <v>821549.4354620437</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1256,22 +1324,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C23" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D23" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E23" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F23" t="n">
-        <v>423.13</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>825198.5789620437</v>
+        <v>822549.4354620437</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1298,22 +1366,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D24" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E24" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F24" t="n">
-        <v>258.83</v>
+        <v>5384.8678</v>
       </c>
       <c r="G24" t="n">
-        <v>825198.5789620437</v>
+        <v>817164.5676620437</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1340,22 +1408,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C25" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D25" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E25" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F25" t="n">
-        <v>16803.119</v>
+        <v>168.99</v>
       </c>
       <c r="G25" t="n">
-        <v>825198.5789620437</v>
+        <v>817164.5676620437</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1382,32 +1450,30 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C26" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D26" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E26" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F26" t="n">
-        <v>695.17</v>
+        <v>1080.91</v>
       </c>
       <c r="G26" t="n">
-        <v>825198.5789620437</v>
+        <v>817164.5676620437</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>13.6</v>
       </c>
@@ -1426,32 +1492,30 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C27" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D27" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E27" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F27" t="n">
-        <v>669.24</v>
+        <v>424.62</v>
       </c>
       <c r="G27" t="n">
-        <v>825198.5789620437</v>
+        <v>817164.5676620437</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>13.6</v>
       </c>
@@ -1470,22 +1534,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C28" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D28" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E28" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F28" t="n">
-        <v>77942.539</v>
+        <v>2262.7199</v>
       </c>
       <c r="G28" t="n">
-        <v>903141.1179620437</v>
+        <v>814901.8477620437</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1512,22 +1576,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C29" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D29" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E29" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F29" t="n">
-        <v>19459.0545</v>
+        <v>2473.4</v>
       </c>
       <c r="G29" t="n">
-        <v>903141.1179620437</v>
+        <v>817375.2477620437</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1554,22 +1618,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C30" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D30" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E30" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F30" t="n">
-        <v>25213.0073</v>
+        <v>253.71</v>
       </c>
       <c r="G30" t="n">
-        <v>903141.1179620437</v>
+        <v>817375.2477620437</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1596,22 +1660,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C31" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D31" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E31" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F31" t="n">
-        <v>43584.1772</v>
+        <v>75</v>
       </c>
       <c r="G31" t="n">
-        <v>903141.1179620437</v>
+        <v>817300.2477620437</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1650,10 +1714,10 @@
         <v>13.7</v>
       </c>
       <c r="F32" t="n">
-        <v>4869.9999</v>
+        <v>37</v>
       </c>
       <c r="G32" t="n">
-        <v>898271.1180620437</v>
+        <v>817337.2477620437</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1680,22 +1744,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C33" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D33" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E33" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F33" t="n">
-        <v>25736.2361</v>
+        <v>37</v>
       </c>
       <c r="G33" t="n">
-        <v>872534.8819620437</v>
+        <v>817337.2477620437</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1722,22 +1786,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C34" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D34" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E34" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F34" t="n">
-        <v>26201.5</v>
+        <v>23910</v>
       </c>
       <c r="G34" t="n">
-        <v>872534.8819620437</v>
+        <v>817337.2477620437</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1764,22 +1828,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C35" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D35" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E35" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F35" t="n">
-        <v>1998.5</v>
+        <v>300</v>
       </c>
       <c r="G35" t="n">
-        <v>872534.8819620437</v>
+        <v>817337.2477620437</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1806,22 +1870,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C36" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D36" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E36" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F36" t="n">
-        <v>7207.3558</v>
+        <v>12226.1299</v>
       </c>
       <c r="G36" t="n">
-        <v>872534.8819620437</v>
+        <v>817337.2477620437</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1848,22 +1912,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C37" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D37" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E37" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>1019.155</v>
       </c>
       <c r="G37" t="n">
-        <v>872574.8819620437</v>
+        <v>816318.0927620437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1890,32 +1954,30 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C38" t="n">
         <v>13.6</v>
       </c>
       <c r="D38" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E38" t="n">
         <v>13.6</v>
       </c>
       <c r="F38" t="n">
-        <v>114</v>
+        <v>2744.765</v>
       </c>
       <c r="G38" t="n">
-        <v>872460.8819620437</v>
+        <v>816318.0927620437</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>13.6</v>
       </c>
@@ -1946,10 +2008,10 @@
         <v>13.6</v>
       </c>
       <c r="F39" t="n">
-        <v>8927.827799999999</v>
+        <v>353.86</v>
       </c>
       <c r="G39" t="n">
-        <v>872460.8819620437</v>
+        <v>816318.0927620437</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1976,32 +2038,30 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C40" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D40" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E40" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F40" t="n">
-        <v>8726.5447</v>
+        <v>9449.8362</v>
       </c>
       <c r="G40" t="n">
-        <v>881187.4266620437</v>
+        <v>825767.9289620437</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>13.6</v>
       </c>
@@ -2020,22 +2080,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C41" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D41" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E41" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F41" t="n">
-        <v>11660</v>
+        <v>569.35</v>
       </c>
       <c r="G41" t="n">
-        <v>881187.4266620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2074,10 +2134,10 @@
         <v>13.6</v>
       </c>
       <c r="F42" t="n">
-        <v>8449.424300000001</v>
+        <v>841.04</v>
       </c>
       <c r="G42" t="n">
-        <v>872738.0023620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2107,19 +2167,19 @@
         <v>13.7</v>
       </c>
       <c r="C43" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D43" t="n">
         <v>13.7</v>
       </c>
       <c r="E43" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F43" t="n">
-        <v>2397.2</v>
+        <v>3211.6</v>
       </c>
       <c r="G43" t="n">
-        <v>875135.2023620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2146,22 +2206,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C44" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D44" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E44" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F44" t="n">
-        <v>648.4</v>
+        <v>1238</v>
       </c>
       <c r="G44" t="n">
-        <v>875135.2023620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2188,22 +2248,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C45" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D45" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E45" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F45" t="n">
-        <v>11076.6788</v>
+        <v>1043.04</v>
       </c>
       <c r="G45" t="n">
-        <v>875135.2023620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2230,22 +2290,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C46" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D46" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E46" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F46" t="n">
-        <v>1457.7212</v>
+        <v>1067.59</v>
       </c>
       <c r="G46" t="n">
-        <v>875135.2023620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2272,22 +2332,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C47" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D47" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E47" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F47" t="n">
-        <v>8270</v>
+        <v>471.27</v>
       </c>
       <c r="G47" t="n">
-        <v>875135.2023620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2314,22 +2374,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C48" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D48" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E48" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F48" t="n">
-        <v>4130</v>
+        <v>236.28</v>
       </c>
       <c r="G48" t="n">
-        <v>875135.2023620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2356,22 +2416,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C49" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D49" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E49" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F49" t="n">
-        <v>4140</v>
+        <v>4206.9715</v>
       </c>
       <c r="G49" t="n">
-        <v>875135.2023620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2398,32 +2458,30 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C50" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D50" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E50" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F50" t="n">
-        <v>60292.6506</v>
+        <v>1572.09</v>
       </c>
       <c r="G50" t="n">
-        <v>875135.2023620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>13.6</v>
       </c>
@@ -2442,32 +2500,30 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C51" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D51" t="n">
         <v>13.8</v>
       </c>
       <c r="E51" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F51" t="n">
-        <v>50044.8795</v>
+        <v>716.2665</v>
       </c>
       <c r="G51" t="n">
-        <v>925180.0818620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>13.6</v>
       </c>
@@ -2486,32 +2542,30 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C52" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D52" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E52" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F52" t="n">
-        <v>1437.9341</v>
+        <v>423.13</v>
       </c>
       <c r="G52" t="n">
-        <v>925180.0818620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>13.6</v>
       </c>
@@ -2530,22 +2584,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C53" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D53" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E53" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F53" t="n">
-        <v>186411.4273</v>
+        <v>258.83</v>
       </c>
       <c r="G53" t="n">
-        <v>925180.0818620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2572,22 +2626,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C54" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D54" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E54" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F54" t="n">
-        <v>2028</v>
+        <v>16803.119</v>
       </c>
       <c r="G54" t="n">
-        <v>925180.0818620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2614,22 +2668,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C55" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D55" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="E55" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F55" t="n">
-        <v>1420.3658</v>
+        <v>695.17</v>
       </c>
       <c r="G55" t="n">
-        <v>926600.4476620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2656,22 +2710,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="C56" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D56" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="E56" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="F56" t="n">
-        <v>13806</v>
+        <v>669.24</v>
       </c>
       <c r="G56" t="n">
-        <v>926600.4476620437</v>
+        <v>825198.5789620437</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2698,22 +2752,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C57" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D57" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E57" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F57" t="n">
-        <v>42000</v>
+        <v>77942.539</v>
       </c>
       <c r="G57" t="n">
-        <v>926600.4476620437</v>
+        <v>903141.1179620437</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2740,22 +2794,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C58" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D58" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E58" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F58" t="n">
-        <v>40679.4009</v>
+        <v>19459.0545</v>
       </c>
       <c r="G58" t="n">
-        <v>926600.4476620437</v>
+        <v>903141.1179620437</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2782,22 +2836,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C59" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D59" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E59" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F59" t="n">
-        <v>11280</v>
+        <v>25213.0073</v>
       </c>
       <c r="G59" t="n">
-        <v>926600.4476620437</v>
+        <v>903141.1179620437</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2824,22 +2878,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="D60" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E60" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F60" t="n">
-        <v>134203.6815</v>
+        <v>43584.1772</v>
       </c>
       <c r="G60" t="n">
-        <v>1060804.129162044</v>
+        <v>903141.1179620437</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2866,22 +2920,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="F61" t="n">
-        <v>73543</v>
+        <v>4869.9999</v>
       </c>
       <c r="G61" t="n">
-        <v>1060804.129162044</v>
+        <v>898271.1180620437</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2908,22 +2962,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="E62" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="F62" t="n">
-        <v>32030</v>
+        <v>25736.2361</v>
       </c>
       <c r="G62" t="n">
-        <v>1060804.129162044</v>
+        <v>872534.8819620437</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2950,22 +3004,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="F63" t="n">
-        <v>27640</v>
+        <v>26201.5</v>
       </c>
       <c r="G63" t="n">
-        <v>1060804.129162044</v>
+        <v>872534.8819620437</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2992,22 +3046,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="F64" t="n">
-        <v>23740</v>
+        <v>1998.5</v>
       </c>
       <c r="G64" t="n">
-        <v>1060804.129162044</v>
+        <v>872534.8819620437</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3034,22 +3088,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="D65" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="F65" t="n">
-        <v>15440</v>
+        <v>7207.3558</v>
       </c>
       <c r="G65" t="n">
-        <v>1060804.129162044</v>
+        <v>872534.8819620437</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3076,22 +3130,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="C66" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="D66" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="E66" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="F66" t="n">
-        <v>280412.8968</v>
+        <v>40</v>
       </c>
       <c r="G66" t="n">
-        <v>1341217.025962044</v>
+        <v>872574.8819620437</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3118,22 +3172,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="C67" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="D67" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="E67" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="F67" t="n">
-        <v>170878.7984</v>
+        <v>114</v>
       </c>
       <c r="G67" t="n">
-        <v>1512095.824362044</v>
+        <v>872460.8819620437</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3160,22 +3214,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="D68" t="n">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="E68" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="F68" t="n">
-        <v>120576.1432</v>
+        <v>8927.827799999999</v>
       </c>
       <c r="G68" t="n">
-        <v>1391519.681162044</v>
+        <v>872460.8819620437</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3202,22 +3256,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="C69" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="D69" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="F69" t="n">
-        <v>23837.0076</v>
+        <v>8726.5447</v>
       </c>
       <c r="G69" t="n">
-        <v>1415356.688762044</v>
+        <v>881187.4266620437</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3244,22 +3298,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="D70" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="E70" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="F70" t="n">
-        <v>157926.9391</v>
+        <v>11660</v>
       </c>
       <c r="G70" t="n">
-        <v>1257429.749662044</v>
+        <v>881187.4266620437</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3286,22 +3340,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="C71" t="n">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="D71" t="n">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="E71" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="F71" t="n">
-        <v>263940.593</v>
+        <v>8449.424300000001</v>
       </c>
       <c r="G71" t="n">
-        <v>1521370.342662043</v>
+        <v>872738.0023620437</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3328,22 +3382,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="C72" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="D72" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="E72" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="F72" t="n">
-        <v>6896.2014</v>
+        <v>2397.2</v>
       </c>
       <c r="G72" t="n">
-        <v>1521370.342662043</v>
+        <v>875135.2023620437</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3370,22 +3424,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="C73" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="D73" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="E73" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="F73" t="n">
-        <v>11121.7564</v>
+        <v>648.4</v>
       </c>
       <c r="G73" t="n">
-        <v>1521370.342662043</v>
+        <v>875135.2023620437</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3412,22 +3466,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="C74" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="D74" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="E74" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="F74" t="n">
-        <v>25102.1397</v>
+        <v>11076.6788</v>
       </c>
       <c r="G74" t="n">
-        <v>1521370.342662043</v>
+        <v>875135.2023620437</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3454,22 +3508,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="C75" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="D75" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="E75" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="F75" t="n">
-        <v>18826.6047</v>
+        <v>1457.7212</v>
       </c>
       <c r="G75" t="n">
-        <v>1521370.342662043</v>
+        <v>875135.2023620437</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3496,22 +3550,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="C76" t="n">
-        <v>14.4</v>
+        <v>13.7</v>
       </c>
       <c r="D76" t="n">
-        <v>14.4</v>
+        <v>13.7</v>
       </c>
       <c r="E76" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="F76" t="n">
-        <v>320416.5407</v>
+        <v>8270</v>
       </c>
       <c r="G76" t="n">
-        <v>1841786.883362043</v>
+        <v>875135.2023620437</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3538,22 +3592,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="C77" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="D77" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="E77" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="F77" t="n">
-        <v>17847.7914</v>
+        <v>4130</v>
       </c>
       <c r="G77" t="n">
-        <v>1823939.091962043</v>
+        <v>875135.2023620437</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3580,22 +3634,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="C78" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="D78" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="E78" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="F78" t="n">
-        <v>17370</v>
+        <v>4140</v>
       </c>
       <c r="G78" t="n">
-        <v>1823939.091962043</v>
+        <v>875135.2023620437</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3622,22 +3676,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="C79" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="D79" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="E79" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="F79" t="n">
-        <v>20883.6523</v>
+        <v>60292.6506</v>
       </c>
       <c r="G79" t="n">
-        <v>1844822.744262043</v>
+        <v>875135.2023620437</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3664,22 +3718,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="C80" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="D80" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="E80" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.195</v>
+        <v>50044.8795</v>
       </c>
       <c r="G80" t="n">
-        <v>1844822.744262043</v>
+        <v>925180.0818620437</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3706,22 +3760,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="C81" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="D81" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="E81" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="F81" t="n">
-        <v>22120</v>
+        <v>1437.9341</v>
       </c>
       <c r="G81" t="n">
-        <v>1822702.744262043</v>
+        <v>925180.0818620437</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3748,22 +3802,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="C82" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="D82" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="E82" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="F82" t="n">
-        <v>42870.8759</v>
+        <v>186411.4273</v>
       </c>
       <c r="G82" t="n">
-        <v>1865573.620162043</v>
+        <v>925180.0818620437</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3790,22 +3844,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="C83" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="D83" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="E83" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="F83" t="n">
-        <v>7959</v>
+        <v>2028</v>
       </c>
       <c r="G83" t="n">
-        <v>1865573.620162043</v>
+        <v>925180.0818620437</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3832,28 +3886,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="C84" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="D84" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="E84" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="F84" t="n">
-        <v>13888.88975069444</v>
+        <v>1420.3658</v>
       </c>
       <c r="G84" t="n">
-        <v>1879462.509912738</v>
+        <v>926600.4476620437</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -3861,47 +3915,51 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1.053823529411765</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1.014705882352941</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="C85" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="D85" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="E85" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="F85" t="n">
-        <v>11122.7736</v>
+        <v>13806</v>
       </c>
       <c r="G85" t="n">
-        <v>1879462.509912738</v>
+        <v>926600.4476620437</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3912,32 +3970,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="C86" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="D86" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="E86" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="F86" t="n">
-        <v>1219.549</v>
+        <v>42000</v>
       </c>
       <c r="G86" t="n">
-        <v>1879462.509912738</v>
+        <v>926600.4476620437</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3948,32 +4012,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="C87" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="D87" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="E87" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="F87" t="n">
-        <v>10950</v>
+        <v>40679.4009</v>
       </c>
       <c r="G87" t="n">
-        <v>1868512.509912738</v>
+        <v>926600.4476620437</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3984,32 +4054,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="C88" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="D88" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="E88" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="F88" t="n">
-        <v>172.7736</v>
+        <v>11280</v>
       </c>
       <c r="G88" t="n">
-        <v>1868339.736312738</v>
+        <v>926600.4476620437</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4020,32 +4096,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="C89" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="E89" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="F89" t="n">
-        <v>25718.8897</v>
+        <v>134203.6815</v>
       </c>
       <c r="G89" t="n">
-        <v>1894058.626012738</v>
+        <v>1060804.129162044</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4056,32 +4138,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="C90" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="D90" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="E90" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F90" t="n">
-        <v>49746.4631</v>
+        <v>73543</v>
       </c>
       <c r="G90" t="n">
-        <v>1943805.089112738</v>
+        <v>1060804.129162044</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4092,32 +4180,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="C91" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="D91" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="E91" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="F91" t="n">
-        <v>17489.50004930556</v>
+        <v>32030</v>
       </c>
       <c r="G91" t="n">
-        <v>1943805.089112738</v>
+        <v>1060804.129162044</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4128,32 +4222,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="C92" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="E92" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F92" t="n">
-        <v>10260</v>
+        <v>27640</v>
       </c>
       <c r="G92" t="n">
-        <v>1943805.089112738</v>
+        <v>1060804.129162044</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4164,32 +4264,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="C93" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="E93" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F93" t="n">
-        <v>4920</v>
+        <v>23740</v>
       </c>
       <c r="G93" t="n">
-        <v>1943805.089112738</v>
+        <v>1060804.129162044</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4200,32 +4306,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="C94" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="E94" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F94" t="n">
-        <v>4360</v>
+        <v>15440</v>
       </c>
       <c r="G94" t="n">
-        <v>1943805.089112738</v>
+        <v>1060804.129162044</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4236,32 +4348,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="C95" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="D95" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="E95" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F95" t="n">
-        <v>4080</v>
+        <v>280412.8968</v>
       </c>
       <c r="G95" t="n">
-        <v>1943805.089112738</v>
+        <v>1341217.025962044</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4272,32 +4390,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C96" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="D96" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="E96" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="F96" t="n">
-        <v>4110</v>
+        <v>170878.7984</v>
       </c>
       <c r="G96" t="n">
-        <v>1943805.089112738</v>
+        <v>1512095.824362044</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4308,32 +4432,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="D97" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="E97" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F97" t="n">
-        <v>60620.3851</v>
+        <v>120576.1432</v>
       </c>
       <c r="G97" t="n">
-        <v>1943805.089112738</v>
+        <v>1391519.681162044</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4344,32 +4474,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="C98" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="D98" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="E98" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F98" t="n">
-        <v>74915.1839</v>
+        <v>23837.0076</v>
       </c>
       <c r="G98" t="n">
-        <v>1943805.089112738</v>
+        <v>1415356.688762044</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4380,32 +4516,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C99" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="D99" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="E99" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>69823.8208</v>
+        <v>157926.9391</v>
       </c>
       <c r="G99" t="n">
-        <v>1943805.089112738</v>
+        <v>1257429.749662044</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4416,32 +4558,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C100" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D100" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E100" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="F100" t="n">
-        <v>25181.3591</v>
+        <v>263940.593</v>
       </c>
       <c r="G100" t="n">
-        <v>1943805.089112738</v>
+        <v>1521370.342662043</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4452,32 +4600,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C101" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D101" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E101" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F101" t="n">
-        <v>120156.5128</v>
+        <v>6896.2014</v>
       </c>
       <c r="G101" t="n">
-        <v>1943805.089112738</v>
+        <v>1521370.342662043</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4488,32 +4642,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C102" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D102" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E102" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F102" t="n">
-        <v>1313</v>
+        <v>11121.7564</v>
       </c>
       <c r="G102" t="n">
-        <v>1943805.089112738</v>
+        <v>1521370.342662043</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4524,32 +4684,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C103" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D103" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E103" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F103" t="n">
-        <v>8863.7821</v>
+        <v>25102.1397</v>
       </c>
       <c r="G103" t="n">
-        <v>1943805.089112738</v>
+        <v>1521370.342662043</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4572,20 +4738,26 @@
         <v>14.3</v>
       </c>
       <c r="F104" t="n">
-        <v>16106.3122</v>
+        <v>18826.6047</v>
       </c>
       <c r="G104" t="n">
-        <v>1927698.776912738</v>
+        <v>1521370.342662043</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4596,10 +4768,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C105" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D105" t="n">
         <v>14.4</v>
@@ -4608,20 +4780,26 @@
         <v>14.3</v>
       </c>
       <c r="F105" t="n">
-        <v>232951.9132</v>
+        <v>320416.5407</v>
       </c>
       <c r="G105" t="n">
-        <v>1927698.776912738</v>
+        <v>1841786.883362043</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4635,19 +4813,19 @@
         <v>14.3</v>
       </c>
       <c r="C106" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="D106" t="n">
         <v>14.3</v>
       </c>
       <c r="E106" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="F106" t="n">
-        <v>8863.7821</v>
+        <v>17847.7914</v>
       </c>
       <c r="G106" t="n">
-        <v>1927698.776912738</v>
+        <v>1823939.091962043</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4656,10 +4834,16 @@
         <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>1.039117647058824</v>
       </c>
       <c r="N106" t="inlineStr"/>
     </row>
@@ -4668,28 +4852,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C107" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="D107" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="E107" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="F107" t="n">
-        <v>12572.9149</v>
+        <v>17370</v>
       </c>
       <c r="G107" t="n">
-        <v>1940271.691812738</v>
+        <v>1823939.091962043</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4704,22 +4888,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C108" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D108" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E108" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="F108" t="n">
-        <v>35127.5755</v>
+        <v>20883.6523</v>
       </c>
       <c r="G108" t="n">
-        <v>1940271.691812738</v>
+        <v>1844822.744262043</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4740,22 +4924,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C109" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D109" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E109" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F109" t="n">
-        <v>79326.77469999999</v>
+        <v>0.195</v>
       </c>
       <c r="G109" t="n">
-        <v>1940271.691812738</v>
+        <v>1844822.744262043</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4776,22 +4960,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="C110" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="D110" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="E110" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="F110" t="n">
-        <v>71367.1005</v>
+        <v>22120</v>
       </c>
       <c r="G110" t="n">
-        <v>1868904.591312738</v>
+        <v>1822702.744262043</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4812,22 +4996,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C111" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D111" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E111" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F111" t="n">
-        <v>4108</v>
+        <v>42870.8759</v>
       </c>
       <c r="G111" t="n">
-        <v>1873012.591312738</v>
+        <v>1865573.620162043</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4848,22 +5032,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C112" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D112" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E112" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F112" t="n">
-        <v>3770</v>
+        <v>7959</v>
       </c>
       <c r="G112" t="n">
-        <v>1873012.591312738</v>
+        <v>1865573.620162043</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4887,19 +5071,19 @@
         <v>14.3</v>
       </c>
       <c r="C113" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D113" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="E113" t="n">
         <v>14.3</v>
       </c>
       <c r="F113" t="n">
-        <v>160575.9764</v>
+        <v>13888.88975069444</v>
       </c>
       <c r="G113" t="n">
-        <v>1712436.614912738</v>
+        <v>1879462.509912738</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4920,22 +5104,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="C114" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D114" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="E114" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F114" t="n">
-        <v>7238</v>
+        <v>11122.7736</v>
       </c>
       <c r="G114" t="n">
-        <v>1712436.614912738</v>
+        <v>1879462.509912738</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4956,28 +5140,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="C115" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D115" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="E115" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F115" t="n">
-        <v>2305.8473</v>
+        <v>1219.549</v>
       </c>
       <c r="G115" t="n">
-        <v>1712436.614912738</v>
+        <v>1879462.509912738</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4992,28 +5176,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C116" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D116" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E116" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F116" t="n">
-        <v>11789.9999</v>
+        <v>10950</v>
       </c>
       <c r="G116" t="n">
-        <v>1724226.614812738</v>
+        <v>1868512.509912738</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5023,6 +5207,1050 @@
       </c>
       <c r="N116" t="inlineStr"/>
     </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>172.7736</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1868339.736312738</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>25718.8897</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1894058.626012738</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D119" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>49746.4631</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>17489.50004930556</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10260</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4920</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4080</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4110</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>60620.3851</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>74915.1839</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>69823.8208</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>25181.3591</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>120156.5128</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1313</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D132" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8863.7821</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1943805.089112738</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>16106.3122</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1927698.776912738</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>232951.9132</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1927698.776912738</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8863.7821</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1927698.776912738</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>12572.9149</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1940271.691812738</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>35127.5755</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1940271.691812738</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>79326.77469999999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1940271.691812738</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>71367.1005</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1868904.591312738</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4108</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1873012.591312738</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3770</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1873012.591312738</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>160575.9764</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1712436.614912738</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7238</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1712436.614912738</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2305.8473</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1712436.614912738</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11789.9999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1724226.614812738</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-17 BackTest MITH.xlsx
+++ b/BackTest/2019-11-17 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>645324.8563</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>656257.0290999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="J3" t="n">
         <v>13.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>656257.0290999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="J4" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K4" t="n">
         <v>13.4</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="J5" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K5" t="n">
         <v>13.4</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="n">
         <v>13.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="J7" t="n">
         <v>13.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,21 @@
         <v>686018.9502999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>13.5</v>
       </c>
-      <c r="K8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +720,15 @@
         <v>710137.8827999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,22 +755,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -830,26 +786,15 @@
         <v>709292.2623620437</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,26 +819,15 @@
         <v>709292.2623620437</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,26 +852,15 @@
         <v>709292.2623620437</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,26 +885,15 @@
         <v>712348.2623620437</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,22 +920,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1050,22 +953,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,22 +986,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1134,22 +1019,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1176,22 +1052,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1218,22 +1085,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1260,22 +1118,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1302,22 +1151,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1344,22 +1184,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1386,22 +1217,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,22 +1250,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1470,22 +1283,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1512,22 +1316,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1554,22 +1349,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1596,22 +1382,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1638,22 +1415,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1680,22 +1448,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1722,22 +1481,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1764,22 +1514,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1806,22 +1547,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1848,22 +1580,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1890,22 +1613,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1932,22 +1646,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1974,22 +1679,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2016,22 +1712,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2058,22 +1745,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2100,22 +1778,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2142,22 +1811,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2184,22 +1844,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2226,22 +1877,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2268,22 +1910,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2310,22 +1943,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2352,22 +1976,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2394,22 +2009,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2436,22 +2042,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2478,22 +2075,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2520,22 +2108,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2562,22 +2141,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2604,22 +2174,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2646,22 +2207,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2688,22 +2240,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2730,22 +2273,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2772,22 +2306,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2814,22 +2339,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2856,22 +2372,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2898,22 +2405,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2940,22 +2438,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2982,22 +2471,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3024,22 +2504,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3066,22 +2537,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3108,22 +2570,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3150,22 +2603,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3192,22 +2636,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3234,22 +2669,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3276,22 +2702,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3318,22 +2735,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3360,22 +2768,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3402,22 +2801,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3444,22 +2834,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3486,22 +2867,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3528,22 +2900,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3570,22 +2933,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3612,22 +2966,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3654,22 +2999,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3696,22 +3032,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3738,22 +3065,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3780,22 +3098,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3822,22 +3131,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3864,22 +3164,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3906,22 +3197,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3948,22 +3230,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3990,22 +3263,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4032,22 +3296,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4074,22 +3329,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4116,22 +3362,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4158,22 +3395,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4200,22 +3428,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4242,22 +3461,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4284,22 +3494,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4326,22 +3527,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4368,22 +3560,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4410,22 +3593,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4452,22 +3626,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4494,22 +3659,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4536,22 +3692,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4578,22 +3725,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4618,24 +3756,15 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4660,24 +3789,15 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4702,24 +3822,15 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4746,22 +3857,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4788,22 +3890,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4828,24 +3921,15 @@
         <v>1823939.091962043</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1.039117647058824</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4870,18 +3954,15 @@
         <v>1823939.091962043</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4906,18 +3987,15 @@
         <v>1844822.744262043</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4942,18 +4020,15 @@
         <v>1844822.744262043</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4978,18 +4053,15 @@
         <v>1822702.744262043</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5014,18 +4086,15 @@
         <v>1865573.620162043</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5050,18 +4119,15 @@
         <v>1865573.620162043</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5086,18 +4152,15 @@
         <v>1879462.509912738</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5122,18 +4185,15 @@
         <v>1879462.509912738</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5158,18 +4218,15 @@
         <v>1879462.509912738</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5196,16 +4253,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5232,16 +4286,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5268,16 +4319,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5304,16 +4352,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5340,16 +4385,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5376,16 +4418,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5412,16 +4451,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5448,16 +4484,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5484,16 +4517,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5518,18 +4548,15 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5556,16 +4583,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5590,18 +4614,15 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5626,18 +4647,15 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5662,18 +4680,15 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5698,18 +4713,15 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5736,16 +4748,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5772,16 +4781,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5806,18 +4812,15 @@
         <v>1927698.776912738</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5844,16 +4847,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5878,18 +4878,15 @@
         <v>1927698.776912738</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5914,18 +4911,15 @@
         <v>1940271.691812738</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5950,18 +4944,15 @@
         <v>1940271.691812738</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5988,16 +4979,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6022,18 +5010,15 @@
         <v>1868904.591312738</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6058,18 +5043,15 @@
         <v>1873012.591312738</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6094,18 +5076,15 @@
         <v>1873012.591312738</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6132,16 +5111,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6166,18 +5142,15 @@
         <v>1712436.614912738</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6204,16 +5177,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6240,18 +5210,15 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest MITH.xlsx
+++ b/BackTest/2019-11-17 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>645324.8563</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>656257.0290999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>13.4</v>
@@ -521,7 +521,7 @@
         <v>656257.0290999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>13.6</v>
@@ -562,7 +562,7 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>13.6</v>
@@ -603,7 +603,7 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>13.5</v>
@@ -640,7 +640,7 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>13.5</v>
@@ -720,10 +720,14 @@
         <v>710137.8827999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13.6</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -756,8 +760,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -789,8 +799,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -822,8 +838,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -855,8 +877,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -888,8 +916,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -921,8 +955,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -954,8 +994,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -987,8 +1033,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1020,8 +1072,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1053,8 +1111,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1086,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1119,8 +1189,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1152,8 +1228,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1185,8 +1267,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1218,8 +1306,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1251,8 +1345,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1284,8 +1384,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1317,8 +1423,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1350,8 +1462,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1383,8 +1501,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1416,8 +1540,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1449,8 +1579,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1482,8 +1618,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1515,8 +1657,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1548,8 +1696,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1581,8 +1735,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1614,8 +1774,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1647,8 +1813,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1680,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1713,8 +1891,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1746,8 +1930,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1779,8 +1969,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1812,8 +2008,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1845,8 +2047,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1878,8 +2086,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1911,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1944,8 +2164,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1977,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2010,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2043,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2076,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2109,8 +2359,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2142,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2175,8 +2437,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2208,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2241,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2274,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2307,8 +2593,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2340,8 +2632,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2373,8 +2671,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2406,8 +2710,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2439,8 +2749,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2472,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2505,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2538,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2571,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2604,8 +2944,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2637,8 +2983,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2670,8 +3022,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2703,8 +3061,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2736,8 +3100,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2769,8 +3139,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +3178,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2835,8 +3217,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2868,8 +3256,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2901,8 +3295,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2934,8 +3334,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2967,8 +3373,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3000,8 +3412,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3033,8 +3451,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3066,8 +3490,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3099,8 +3529,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3132,8 +3568,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3165,8 +3607,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3198,8 +3646,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3231,8 +3685,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3264,8 +3724,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3297,8 +3763,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3330,8 +3802,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3363,8 +3841,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3396,8 +3880,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3429,8 +3919,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3462,8 +3958,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3495,8 +3997,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3528,8 +4036,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3561,8 +4075,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3594,8 +4114,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3627,8 +4153,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3660,8 +4192,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3693,8 +4231,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3726,8 +4270,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3756,11 +4306,17 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +4345,17 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3822,11 +4384,17 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3858,8 +4426,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3891,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3921,11 +4501,17 @@
         <v>1823939.091962043</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +4540,17 @@
         <v>1823939.091962043</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3987,11 +4579,17 @@
         <v>1844822.744262043</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4020,11 +4618,17 @@
         <v>1844822.744262043</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4053,11 +4657,17 @@
         <v>1822702.744262043</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4086,11 +4696,17 @@
         <v>1865573.620162043</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4119,11 +4735,17 @@
         <v>1865573.620162043</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4152,11 +4774,17 @@
         <v>1879462.509912738</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4185,11 +4813,17 @@
         <v>1879462.509912738</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +4852,17 @@
         <v>1879462.509912738</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4254,8 +4894,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4287,8 +4933,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4317,13 +4969,19 @@
         <v>1894058.626012738</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>1.046470588235294</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
@@ -4383,7 +5041,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4416,7 +5074,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4449,7 +5107,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4482,7 +5140,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4515,7 +5173,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4548,7 +5206,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4581,7 +5239,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4614,7 +5272,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4647,7 +5305,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4680,7 +5338,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4713,7 +5371,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4812,7 +5470,7 @@
         <v>1927698.776912738</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4878,7 +5536,7 @@
         <v>1927698.776912738</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4911,7 +5569,7 @@
         <v>1940271.691812738</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4944,7 +5602,7 @@
         <v>1940271.691812738</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5010,7 +5668,7 @@
         <v>1868904.591312738</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5043,7 +5701,7 @@
         <v>1873012.591312738</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5076,7 +5734,7 @@
         <v>1873012.591312738</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5142,7 +5800,7 @@
         <v>1712436.614912738</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5208,7 +5866,7 @@
         <v>1724226.614812738</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5219,6 +5877,6 @@
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest MITH.xlsx
+++ b/BackTest/2019-11-17 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>656257.0290999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>13.4</v>
       </c>
@@ -562,11 +560,9 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>13.4</v>
       </c>
@@ -603,14 +599,10 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +632,11 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +668,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,14 +698,10 @@
         <v>710137.8827999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -760,14 +734,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -799,14 +767,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -838,14 +800,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -877,14 +833,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -916,14 +866,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -955,14 +899,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -994,14 +932,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1033,14 +965,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1072,14 +998,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1111,14 +1031,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1150,14 +1064,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1189,14 +1097,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1228,14 +1130,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1267,14 +1163,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1306,14 +1196,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1345,14 +1229,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1384,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1423,14 +1295,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1462,14 +1328,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1501,14 +1361,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1540,14 +1394,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1579,14 +1427,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1618,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1657,14 +1493,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1696,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1735,14 +1559,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1774,14 +1592,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1813,14 +1625,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1852,14 +1658,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1891,14 +1691,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1930,14 +1724,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1969,14 +1757,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2008,14 +1790,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2047,14 +1823,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2086,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2125,14 +1889,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2164,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2203,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2242,14 +1988,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +2021,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2320,14 +2054,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2359,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2398,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2437,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2476,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2515,14 +2219,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2554,14 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2593,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2632,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2671,14 +2351,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2710,14 +2384,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2749,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2788,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2827,14 +2483,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2866,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2905,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2944,14 +2582,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2983,14 +2615,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3022,14 +2648,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3061,14 +2681,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3100,14 +2714,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3139,14 +2747,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3178,14 +2780,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3217,14 +2813,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3256,14 +2846,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3295,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3334,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3373,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3412,14 +2978,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3451,14 +3011,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3490,14 +3044,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3529,14 +3077,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3568,14 +3110,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3607,14 +3143,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3646,14 +3176,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3685,14 +3209,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3724,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3763,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3802,14 +3308,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3841,14 +3341,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3880,14 +3374,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +3404,11 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3958,14 +3440,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3994,17 +3470,11 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4033,17 +3503,11 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4072,17 +3536,11 @@
         <v>1341217.025962044</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4111,17 +3569,11 @@
         <v>1512095.824362044</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4150,17 +3602,11 @@
         <v>1391519.681162044</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4192,14 +3638,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4231,14 +3671,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4267,17 +3701,11 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4309,14 +3737,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +3770,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4387,14 +3803,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4426,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4465,14 +3869,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4504,14 +3902,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +3935,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4582,14 +3968,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4621,14 +4001,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4034,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4067,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4738,14 +4100,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4777,14 +4133,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4816,14 +4166,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4855,14 +4199,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4232,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4933,14 +4265,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4969,19 +4295,13 @@
         <v>1894058.626012738</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>1.046470588235294</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
@@ -5041,7 +4361,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5074,7 +4394,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5107,7 +4427,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5140,7 +4460,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5173,7 +4493,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5206,7 +4526,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5239,7 +4559,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5272,7 +4592,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5305,7 +4625,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5866,7 +5186,7 @@
         <v>1724226.614812738</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5877,6 +5197,6 @@
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest MITH.xlsx
+++ b/BackTest/2019-11-17 BackTest MITH.xlsx
@@ -521,9 +521,11 @@
         <v>656257.0290999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J4" t="n">
         <v>13.4</v>
       </c>
@@ -560,9 +562,11 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J5" t="n">
         <v>13.4</v>
       </c>
@@ -599,10 +603,14 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.5</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -632,11 +640,19 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -668,8 +684,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -3404,7 +3426,7 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3470,7 +3492,7 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3525,7 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3536,7 +3558,7 @@
         <v>1341217.025962044</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3569,7 +3591,7 @@
         <v>1512095.824362044</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3602,7 +3624,7 @@
         <v>1391519.681162044</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3701,7 +3723,7 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4229,7 +4251,7 @@
         <v>1868512.509912738</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4361,7 +4383,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4394,7 +4416,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4427,7 +4449,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4460,7 +4482,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4493,7 +4515,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4526,7 +4548,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4559,7 +4581,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4592,7 +4614,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4625,7 +4647,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4658,7 +4680,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4691,7 +4713,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4724,7 +4746,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4757,7 +4779,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4823,7 +4845,7 @@
         <v>1927698.776912738</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>

--- a/BackTest/2019-11-17 BackTest MITH.xlsx
+++ b/BackTest/2019-11-17 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>500</v>
       </c>
       <c r="G2" t="n">
-        <v>645324.8563</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>10932.1728</v>
       </c>
       <c r="G3" t="n">
-        <v>656257.0290999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,184 +503,155 @@
         <v>42840.5</v>
       </c>
       <c r="G4" t="n">
-        <v>656257.0290999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36072.7447</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>224998.7148</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29802.9212</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
         <v>13.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="I8" t="n">
         <v>13.5</v>
       </c>
-      <c r="D5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>41</v>
-      </c>
-      <c r="G5" t="n">
-        <v>656216.0290999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36072.7447</v>
-      </c>
-      <c r="G6" t="n">
-        <v>656216.0290999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>224998.7148</v>
-      </c>
-      <c r="G7" t="n">
-        <v>656216.0290999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>29802.9212</v>
-      </c>
-      <c r="G8" t="n">
-        <v>686018.9502999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -717,18 +673,15 @@
         <v>24118.9325</v>
       </c>
       <c r="G9" t="n">
-        <v>710137.8827999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,18 +703,15 @@
         <v>5928.7568</v>
       </c>
       <c r="G10" t="n">
-        <v>710137.8827999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,18 +733,15 @@
         <v>845.6204379562043</v>
       </c>
       <c r="G11" t="n">
-        <v>709292.2623620437</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +763,15 @@
         <v>19296.6902</v>
       </c>
       <c r="G12" t="n">
-        <v>709292.2623620437</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -849,18 +793,15 @@
         <v>1338.4167</v>
       </c>
       <c r="G13" t="n">
-        <v>709292.2623620437</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,18 +823,15 @@
         <v>3056</v>
       </c>
       <c r="G14" t="n">
-        <v>712348.2623620437</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -915,18 +853,15 @@
         <v>109259.8524</v>
       </c>
       <c r="G15" t="n">
-        <v>821608.1147620437</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -948,18 +883,15 @@
         <v>6.2043795620439e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>821608.1147620437</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -981,18 +913,15 @@
         <v>122.0748</v>
       </c>
       <c r="G17" t="n">
-        <v>821486.0399620438</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1014,18 +943,15 @@
         <v>6964.9998</v>
       </c>
       <c r="G18" t="n">
-        <v>828451.0397620437</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1047,18 +973,15 @@
         <v>174</v>
       </c>
       <c r="G19" t="n">
-        <v>828277.0397620437</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1080,18 +1003,15 @@
         <v>2205.4342</v>
       </c>
       <c r="G20" t="n">
-        <v>830482.4739620438</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,18 +1033,15 @@
         <v>17639.5814</v>
       </c>
       <c r="G21" t="n">
-        <v>830482.4739620438</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1146,18 +1063,15 @@
         <v>8933.038500000001</v>
       </c>
       <c r="G22" t="n">
-        <v>821549.4354620437</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1179,18 +1093,15 @@
         <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>822549.4354620437</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1212,18 +1123,15 @@
         <v>5384.8678</v>
       </c>
       <c r="G24" t="n">
-        <v>817164.5676620437</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1245,18 +1153,15 @@
         <v>168.99</v>
       </c>
       <c r="G25" t="n">
-        <v>817164.5676620437</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1278,18 +1183,15 @@
         <v>1080.91</v>
       </c>
       <c r="G26" t="n">
-        <v>817164.5676620437</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1311,18 +1213,15 @@
         <v>424.62</v>
       </c>
       <c r="G27" t="n">
-        <v>817164.5676620437</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1344,18 +1243,15 @@
         <v>2262.7199</v>
       </c>
       <c r="G28" t="n">
-        <v>814901.8477620437</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1377,18 +1273,15 @@
         <v>2473.4</v>
       </c>
       <c r="G29" t="n">
-        <v>817375.2477620437</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1410,18 +1303,15 @@
         <v>253.71</v>
       </c>
       <c r="G30" t="n">
-        <v>817375.2477620437</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1443,18 +1333,15 @@
         <v>75</v>
       </c>
       <c r="G31" t="n">
-        <v>817300.2477620437</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1476,18 +1363,15 @@
         <v>37</v>
       </c>
       <c r="G32" t="n">
-        <v>817337.2477620437</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1509,18 +1393,15 @@
         <v>37</v>
       </c>
       <c r="G33" t="n">
-        <v>817337.2477620437</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1542,18 +1423,15 @@
         <v>23910</v>
       </c>
       <c r="G34" t="n">
-        <v>817337.2477620437</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1575,18 +1453,15 @@
         <v>300</v>
       </c>
       <c r="G35" t="n">
-        <v>817337.2477620437</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1608,18 +1483,15 @@
         <v>12226.1299</v>
       </c>
       <c r="G36" t="n">
-        <v>817337.2477620437</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1641,18 +1513,15 @@
         <v>1019.155</v>
       </c>
       <c r="G37" t="n">
-        <v>816318.0927620437</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1674,18 +1543,15 @@
         <v>2744.765</v>
       </c>
       <c r="G38" t="n">
-        <v>816318.0927620437</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1707,18 +1573,15 @@
         <v>353.86</v>
       </c>
       <c r="G39" t="n">
-        <v>816318.0927620437</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1740,18 +1603,15 @@
         <v>9449.8362</v>
       </c>
       <c r="G40" t="n">
-        <v>825767.9289620437</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1773,18 +1633,15 @@
         <v>569.35</v>
       </c>
       <c r="G41" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1806,18 +1663,15 @@
         <v>841.04</v>
       </c>
       <c r="G42" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1839,18 +1693,15 @@
         <v>3211.6</v>
       </c>
       <c r="G43" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1872,18 +1723,15 @@
         <v>1238</v>
       </c>
       <c r="G44" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1905,18 +1753,15 @@
         <v>1043.04</v>
       </c>
       <c r="G45" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1938,18 +1783,15 @@
         <v>1067.59</v>
       </c>
       <c r="G46" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1971,18 +1813,15 @@
         <v>471.27</v>
       </c>
       <c r="G47" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2004,18 +1843,15 @@
         <v>236.28</v>
       </c>
       <c r="G48" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2037,18 +1873,15 @@
         <v>4206.9715</v>
       </c>
       <c r="G49" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2070,18 +1903,15 @@
         <v>1572.09</v>
       </c>
       <c r="G50" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2103,18 +1933,15 @@
         <v>716.2665</v>
       </c>
       <c r="G51" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2136,18 +1963,15 @@
         <v>423.13</v>
       </c>
       <c r="G52" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2169,18 +1993,15 @@
         <v>258.83</v>
       </c>
       <c r="G53" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2202,18 +2023,15 @@
         <v>16803.119</v>
       </c>
       <c r="G54" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2235,18 +2053,15 @@
         <v>695.17</v>
       </c>
       <c r="G55" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2268,18 +2083,15 @@
         <v>669.24</v>
       </c>
       <c r="G56" t="n">
-        <v>825198.5789620437</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2301,18 +2113,15 @@
         <v>77942.539</v>
       </c>
       <c r="G57" t="n">
-        <v>903141.1179620437</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2334,18 +2143,15 @@
         <v>19459.0545</v>
       </c>
       <c r="G58" t="n">
-        <v>903141.1179620437</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2367,18 +2173,15 @@
         <v>25213.0073</v>
       </c>
       <c r="G59" t="n">
-        <v>903141.1179620437</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2400,18 +2203,15 @@
         <v>43584.1772</v>
       </c>
       <c r="G60" t="n">
-        <v>903141.1179620437</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2433,18 +2233,15 @@
         <v>4869.9999</v>
       </c>
       <c r="G61" t="n">
-        <v>898271.1180620437</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2466,18 +2263,15 @@
         <v>25736.2361</v>
       </c>
       <c r="G62" t="n">
-        <v>872534.8819620437</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2499,18 +2293,15 @@
         <v>26201.5</v>
       </c>
       <c r="G63" t="n">
-        <v>872534.8819620437</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2532,18 +2323,15 @@
         <v>1998.5</v>
       </c>
       <c r="G64" t="n">
-        <v>872534.8819620437</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2565,18 +2353,15 @@
         <v>7207.3558</v>
       </c>
       <c r="G65" t="n">
-        <v>872534.8819620437</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2598,18 +2383,15 @@
         <v>40</v>
       </c>
       <c r="G66" t="n">
-        <v>872574.8819620437</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2631,18 +2413,15 @@
         <v>114</v>
       </c>
       <c r="G67" t="n">
-        <v>872460.8819620437</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2664,18 +2443,15 @@
         <v>8927.827799999999</v>
       </c>
       <c r="G68" t="n">
-        <v>872460.8819620437</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2697,18 +2473,15 @@
         <v>8726.5447</v>
       </c>
       <c r="G69" t="n">
-        <v>881187.4266620437</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2730,18 +2503,15 @@
         <v>11660</v>
       </c>
       <c r="G70" t="n">
-        <v>881187.4266620437</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2763,18 +2533,15 @@
         <v>8449.424300000001</v>
       </c>
       <c r="G71" t="n">
-        <v>872738.0023620437</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2796,18 +2563,15 @@
         <v>2397.2</v>
       </c>
       <c r="G72" t="n">
-        <v>875135.2023620437</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2829,18 +2593,15 @@
         <v>648.4</v>
       </c>
       <c r="G73" t="n">
-        <v>875135.2023620437</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2862,18 +2623,15 @@
         <v>11076.6788</v>
       </c>
       <c r="G74" t="n">
-        <v>875135.2023620437</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2895,18 +2653,15 @@
         <v>1457.7212</v>
       </c>
       <c r="G75" t="n">
-        <v>875135.2023620437</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2928,18 +2683,15 @@
         <v>8270</v>
       </c>
       <c r="G76" t="n">
-        <v>875135.2023620437</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2961,18 +2713,15 @@
         <v>4130</v>
       </c>
       <c r="G77" t="n">
-        <v>875135.2023620437</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2994,18 +2743,15 @@
         <v>4140</v>
       </c>
       <c r="G78" t="n">
-        <v>875135.2023620437</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3027,18 +2773,15 @@
         <v>60292.6506</v>
       </c>
       <c r="G79" t="n">
-        <v>875135.2023620437</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3060,18 +2803,15 @@
         <v>50044.8795</v>
       </c>
       <c r="G80" t="n">
-        <v>925180.0818620437</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3093,18 +2833,15 @@
         <v>1437.9341</v>
       </c>
       <c r="G81" t="n">
-        <v>925180.0818620437</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3126,18 +2863,15 @@
         <v>186411.4273</v>
       </c>
       <c r="G82" t="n">
-        <v>925180.0818620437</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3159,18 +2893,15 @@
         <v>2028</v>
       </c>
       <c r="G83" t="n">
-        <v>925180.0818620437</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3192,18 +2923,15 @@
         <v>1420.3658</v>
       </c>
       <c r="G84" t="n">
-        <v>926600.4476620437</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3225,18 +2953,15 @@
         <v>13806</v>
       </c>
       <c r="G85" t="n">
-        <v>926600.4476620437</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3258,18 +2983,15 @@
         <v>42000</v>
       </c>
       <c r="G86" t="n">
-        <v>926600.4476620437</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3291,18 +3013,15 @@
         <v>40679.4009</v>
       </c>
       <c r="G87" t="n">
-        <v>926600.4476620437</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3324,18 +3043,15 @@
         <v>11280</v>
       </c>
       <c r="G88" t="n">
-        <v>926600.4476620437</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3357,18 +3073,15 @@
         <v>134203.6815</v>
       </c>
       <c r="G89" t="n">
-        <v>1060804.129162044</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3390,18 +3103,15 @@
         <v>73543</v>
       </c>
       <c r="G90" t="n">
-        <v>1060804.129162044</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3423,18 +3133,15 @@
         <v>32030</v>
       </c>
       <c r="G91" t="n">
-        <v>1060804.129162044</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3456,18 +3163,15 @@
         <v>27640</v>
       </c>
       <c r="G92" t="n">
-        <v>1060804.129162044</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3489,18 +3193,15 @@
         <v>23740</v>
       </c>
       <c r="G93" t="n">
-        <v>1060804.129162044</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3522,18 +3223,15 @@
         <v>15440</v>
       </c>
       <c r="G94" t="n">
-        <v>1060804.129162044</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3555,18 +3253,15 @@
         <v>280412.8968</v>
       </c>
       <c r="G95" t="n">
-        <v>1341217.025962044</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3588,18 +3283,15 @@
         <v>170878.7984</v>
       </c>
       <c r="G96" t="n">
-        <v>1512095.824362044</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3621,18 +3313,15 @@
         <v>120576.1432</v>
       </c>
       <c r="G97" t="n">
-        <v>1391519.681162044</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3654,18 +3343,15 @@
         <v>23837.0076</v>
       </c>
       <c r="G98" t="n">
-        <v>1415356.688762044</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3687,18 +3373,15 @@
         <v>157926.9391</v>
       </c>
       <c r="G99" t="n">
-        <v>1257429.749662044</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3720,18 +3403,15 @@
         <v>263940.593</v>
       </c>
       <c r="G100" t="n">
-        <v>1521370.342662043</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3753,18 +3433,15 @@
         <v>6896.2014</v>
       </c>
       <c r="G101" t="n">
-        <v>1521370.342662043</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3786,18 +3463,15 @@
         <v>11121.7564</v>
       </c>
       <c r="G102" t="n">
-        <v>1521370.342662043</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3819,18 +3493,15 @@
         <v>25102.1397</v>
       </c>
       <c r="G103" t="n">
-        <v>1521370.342662043</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3852,18 +3523,15 @@
         <v>18826.6047</v>
       </c>
       <c r="G104" t="n">
-        <v>1521370.342662043</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3885,18 +3553,15 @@
         <v>320416.5407</v>
       </c>
       <c r="G105" t="n">
-        <v>1841786.883362043</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3918,18 +3583,15 @@
         <v>17847.7914</v>
       </c>
       <c r="G106" t="n">
-        <v>1823939.091962043</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3951,18 +3613,15 @@
         <v>17370</v>
       </c>
       <c r="G107" t="n">
-        <v>1823939.091962043</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3984,18 +3643,15 @@
         <v>20883.6523</v>
       </c>
       <c r="G108" t="n">
-        <v>1844822.744262043</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4017,18 +3673,15 @@
         <v>0.195</v>
       </c>
       <c r="G109" t="n">
-        <v>1844822.744262043</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4050,18 +3703,15 @@
         <v>22120</v>
       </c>
       <c r="G110" t="n">
-        <v>1822702.744262043</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4083,18 +3733,15 @@
         <v>42870.8759</v>
       </c>
       <c r="G111" t="n">
-        <v>1865573.620162043</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4116,18 +3763,15 @@
         <v>7959</v>
       </c>
       <c r="G112" t="n">
-        <v>1865573.620162043</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4149,18 +3793,15 @@
         <v>13888.88975069444</v>
       </c>
       <c r="G113" t="n">
-        <v>1879462.509912738</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4182,18 +3823,15 @@
         <v>11122.7736</v>
       </c>
       <c r="G114" t="n">
-        <v>1879462.509912738</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4215,18 +3853,15 @@
         <v>1219.549</v>
       </c>
       <c r="G115" t="n">
-        <v>1879462.509912738</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4248,18 +3883,15 @@
         <v>10950</v>
       </c>
       <c r="G116" t="n">
-        <v>1868512.509912738</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4281,18 +3913,15 @@
         <v>172.7736</v>
       </c>
       <c r="G117" t="n">
-        <v>1868339.736312738</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4314,18 +3943,15 @@
         <v>25718.8897</v>
       </c>
       <c r="G118" t="n">
-        <v>1894058.626012738</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4347,18 +3973,15 @@
         <v>49746.4631</v>
       </c>
       <c r="G119" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4380,18 +4003,15 @@
         <v>17489.50004930556</v>
       </c>
       <c r="G120" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4413,18 +4033,15 @@
         <v>10260</v>
       </c>
       <c r="G121" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4446,18 +4063,15 @@
         <v>4920</v>
       </c>
       <c r="G122" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4479,18 +4093,15 @@
         <v>4360</v>
       </c>
       <c r="G123" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4512,18 +4123,15 @@
         <v>4080</v>
       </c>
       <c r="G124" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4545,18 +4153,15 @@
         <v>4110</v>
       </c>
       <c r="G125" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4578,18 +4183,15 @@
         <v>60620.3851</v>
       </c>
       <c r="G126" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4611,18 +4213,15 @@
         <v>74915.1839</v>
       </c>
       <c r="G127" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4644,18 +4243,15 @@
         <v>69823.8208</v>
       </c>
       <c r="G128" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4677,18 +4273,15 @@
         <v>25181.3591</v>
       </c>
       <c r="G129" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4710,18 +4303,15 @@
         <v>120156.5128</v>
       </c>
       <c r="G130" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4743,18 +4333,15 @@
         <v>1313</v>
       </c>
       <c r="G131" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4776,18 +4363,15 @@
         <v>8863.7821</v>
       </c>
       <c r="G132" t="n">
-        <v>1943805.089112738</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4809,18 +4393,15 @@
         <v>16106.3122</v>
       </c>
       <c r="G133" t="n">
-        <v>1927698.776912738</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4842,18 +4423,15 @@
         <v>232951.9132</v>
       </c>
       <c r="G134" t="n">
-        <v>1927698.776912738</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4875,18 +4453,15 @@
         <v>8863.7821</v>
       </c>
       <c r="G135" t="n">
-        <v>1927698.776912738</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4908,18 +4483,15 @@
         <v>12572.9149</v>
       </c>
       <c r="G136" t="n">
-        <v>1940271.691812738</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4941,18 +4513,15 @@
         <v>35127.5755</v>
       </c>
       <c r="G137" t="n">
-        <v>1940271.691812738</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4974,18 +4543,15 @@
         <v>79326.77469999999</v>
       </c>
       <c r="G138" t="n">
-        <v>1940271.691812738</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5007,18 +4573,15 @@
         <v>71367.1005</v>
       </c>
       <c r="G139" t="n">
-        <v>1868904.591312738</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5040,18 +4603,15 @@
         <v>4108</v>
       </c>
       <c r="G140" t="n">
-        <v>1873012.591312738</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5073,18 +4633,15 @@
         <v>3770</v>
       </c>
       <c r="G141" t="n">
-        <v>1873012.591312738</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5106,18 +4663,15 @@
         <v>160575.9764</v>
       </c>
       <c r="G142" t="n">
-        <v>1712436.614912738</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5139,18 +4693,15 @@
         <v>7238</v>
       </c>
       <c r="G143" t="n">
-        <v>1712436.614912738</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5172,18 +4723,15 @@
         <v>2305.8473</v>
       </c>
       <c r="G144" t="n">
-        <v>1712436.614912738</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5205,18 +4753,15 @@
         <v>11789.9999</v>
       </c>
       <c r="G145" t="n">
-        <v>1724226.614812738</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
